--- a/Documentation/ChambeFinalBOM.xlsx
+++ b/Documentation/ChambeFinalBOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b423f4aa280b212/Documents/Norquist Lab/Environmental Chamber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{44EE74B7-DDB0-4147-A25C-5B58CED16EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE0B6D61-8B87-4613-8B0E-FAFFFC86B87E}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{44EE74B7-DDB0-4147-A25C-5B58CED16EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E38C374-41A2-4D1C-A38D-3615F02CF393}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA77B927-07BD-4BD8-BCFE-F30F927761B8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>Part</t>
   </si>
@@ -104,27 +104,12 @@
     <t>https://www.mcmaster.com/94920A400/</t>
   </si>
   <si>
-    <t>Sealant Tape</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/XFasten-8-Inch-30-Foot-Sealing-Patching/dp/B06WLQ3WLS/ref=sr_1_19?crid=2C3SEKSG8RU8S&amp;keywords=sealant+tape&amp;qid=1644808033&amp;s=industrial&amp;sprefix=sealant+tape%2Cindustrial%2C82&amp;sr=1-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x 600mm </t>
-  </si>
-  <si>
     <t>10x 1 meter</t>
   </si>
   <si>
-    <t>1x 500 mm</t>
-  </si>
-  <si>
     <t>1x</t>
   </si>
   <si>
-    <t>30 ft</t>
-  </si>
-  <si>
     <t>Custom Cut Acrylic Sheets</t>
   </si>
   <si>
@@ -155,12 +140,6 @@
     <t>Raspberry Pi Pico</t>
   </si>
   <si>
-    <t>Wiring Kit</t>
-  </si>
-  <si>
-    <t>Foam Insulation Tape</t>
-  </si>
-  <si>
     <t>Thorlabs MVL6WA</t>
   </si>
   <si>
@@ -290,7 +269,46 @@
     <t>480 pieces</t>
   </si>
   <si>
-    <t>Tools Required</t>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>2x 500 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x 600mm </t>
+  </si>
+  <si>
+    <t>https://www.bhphotovideo.com/c/product/1649345-REG/calibrite_ccpp2_colorchecker_passport_photo_2.html?gclid=CjwKCAjw0dKXBhBPEiwA2bmObSY-_sa5rvXfsi5kcR7edFjaxXUhZDWa2jlIqBe_-w45FkE5U9D0ChoCS1cQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.thorlabs.com/thorproduct.cfm?partnumber=CS165CU</t>
+  </si>
+  <si>
+    <t>https://www.thorlabs.com/thorproduct.cfm?partnumber=MVL6WA</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Foam Insulation Tape, 1/4" wide x 1/8" thick</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Weather-Stripping-Window-Insulation-Adhesive/dp/B07T11RF19/ref=sr_1_7?crid=J7B7DL7GYGYK&amp;keywords=foam%2Binsulation%2Btape%2B1%2F4%2Binch%2Bwide&amp;qid=1660818192&amp;sprefix=foam%2Binsulation%2Btape%2B1%2F4%2B%2Caps%2C108&amp;sr=8-7&amp;th=1Adhesive/dp/B07T11RF19/ref=sr_1_7?crid=J7B7DL7GYGYK&amp;keywords=foam%2Binsulation%2Btape%2B1%2F4%2Binch%2Bwide&amp;qid=1660818192&amp;sprefix=foam%2Binsulation%2Btape%2B1%2F4%2B%2Caps%2C108&amp;sr=8-7&amp;th=1</t>
+  </si>
+  <si>
+    <t>Enclosure Materials</t>
+  </si>
+  <si>
+    <t>Internal Chamber Materials</t>
+  </si>
+  <si>
+    <t>Tools Required:</t>
+  </si>
+  <si>
+    <t>Wiring Rolls</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/22AWG-Silicone-OD-Stranded-Insulation/dp/B07T4SYVYG/ref=sr_1_1_sspa?crid=XOH55BGRS11V&amp;keywords=silicone+wire&amp;qid=1660818655&amp;s=hi&amp;sprefix=silicone+wire%2Ctools%2C88&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExSjVTNUpFTkdQUzlLJmVuY3J5cHRlZElkPUEwMjcxMTEyMjdDRUYyNUU0QUFTRiZlbmNyeXB0ZWRBZElkPUEwMDYxNDIyVkpZN1dTNkwwRzBSJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
   </si>
 </sst>
 </file>
@@ -367,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -378,6 +396,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0587657-F9F0-4643-922F-6983E702EDCA}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,33 +724,36 @@
     <col min="1" max="1" width="48.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="4" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -738,19 +761,22 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5">
+        <v>171.98</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -758,16 +784,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>29.99</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -775,18 +804,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>26.99</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4">
         <v>62</v>
@@ -797,11 +829,14 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -814,28 +849,34 @@
       <c r="D6" s="5">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5">
+        <v>82.74</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4">
         <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
+        <v>48.99</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -848,11 +889,14 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -860,16 +904,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5">
+        <v>15.52</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -882,11 +929,14 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5">
+        <v>15.83</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -899,382 +949,496 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5">
+        <v>10.38</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15.98</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5">
+        <v>824.95</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>85.99</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="2">
+        <v>25.18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13.79</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1">
-        <v>88</v>
-      </c>
       <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>12.29</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16.95</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>448.05</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>166.38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>120</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>110</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15.98</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>21.69</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="10">
+        <f xml:space="preserve"> SUM(E2:E34)</f>
+        <v>2465.4899999999989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08PQPJYHX?ref_=pd_sn_dp_a2a_ns_d_rs_dp_0&amp;pd_rd_w=nbYXm&amp;pf_rd_p=d8a29d2d-375f-411b-8255-464686dcb4e9&amp;pf_rd_r=YJW23TS1HJTQC1E3EEB9&amp;pd_rd_r=5578f30c-5b46-4b54-96d0-cd6367a1aa2d&amp;pd_rd_wg=qOQbg&amp;th=1" xr:uid="{BD57B437-4133-473D-B992-9A72BDEEDDE1}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{8D45057B-6E1C-4A62-9129-BEF55C8C65F1}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{F6B5D18B-8E9B-471B-B995-D2F13FA1395A}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{FD02188C-3DE6-4DAA-AB6D-D3F2026F749C}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{1E1E0183-DD36-44B4-BE75-EE0B64049964}"/>
-    <hyperlink ref="E3" r:id="rId6" display="https://www.amazon.com/Iverntech-European-Standard-Extrusion-Engraving/dp/B07PMZ6V2W/ref=sr_1_5?crid=3P5Y4L0RFGPX8&amp;keywords=aluminum%2Bextrusion%2B20mm%2Bx%2B40mm&amp;qid=1644855216&amp;s=industrial&amp;sprefix=alumnium%2Bextrusion%2B20mm%2Bx%2B40mm%2Cindustrial%2C49&amp;sr=1-5&amp;th=1" xr:uid="{F8179D22-8816-46F4-9EB4-CF0E50ABCD7B}"/>
-    <hyperlink ref="E4" r:id="rId7" display="https://www.amazon.com/Iverntech-European-Standard-Extrusion-Engraving/dp/B07PNXNF5V/ref=sr_1_5?crid=3P5Y4L0RFGPX8&amp;keywords=aluminum%2Bextrusion%2B20mm%2Bx%2B40mm&amp;qid=1644855216&amp;s=industrial&amp;sprefix=alumnium%2Bextrusion%2B20mm%2Bx%2B40mm%2Cindustrial%2C49&amp;sr=1-5&amp;th=1" xr:uid="{75FAF0ED-A514-4D6D-A420-C8E8EACC3AE6}"/>
-    <hyperlink ref="E5" r:id="rId8" display="https://www.amazon.com/Befenybay-Extruded-Aluminum-Extrusion-2028-Black-10/dp/B086CYCGCX/ref=sr_1_6?crid=316U4YR9WT108&amp;keywords=aluminum%2Bextrusion%2Bgusset%2B20mm&amp;qid=1644855780&amp;s=industrial&amp;sprefix=aluminum%2Bextrusion%2Bgusset%2B20mm%2Cindustrial%2C32&amp;sr=1-6&amp;th=1" xr:uid="{8C13152F-D896-484E-8543-935401E67456}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{960417E1-1A56-4501-8CD8-97E4D5DE9E2F}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{2B2C1F59-4156-4D04-BB3B-E52073702420}"/>
-    <hyperlink ref="E11" r:id="rId11" xr:uid="{A53C816A-1264-496A-832A-444C2F5825F2}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{CF570558-0E3A-4CEB-A07D-2DF01695DA83}"/>
-    <hyperlink ref="E16" r:id="rId13" display="https://www.amazon.com/Befenybay-Extruded-Aluminum-Extrusion-2028-Black-10/dp/B086CYCGCX/ref=sr_1_6?crid=316U4YR9WT108&amp;keywords=aluminum%2Bextrusion%2Bgusset%2B20mm&amp;qid=1644855780&amp;s=industrial&amp;sprefix=aluminum%2Bextrusion%2Bgusset%2B20mm%2Cindustrial%2C32&amp;sr=1-6&amp;th=1" xr:uid="{E2F29E0B-DB6F-497D-8D60-7C0F1184E38E}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{C8E79EBC-C908-4E65-852F-8E0D483D6FF6}"/>
-    <hyperlink ref="E18" r:id="rId15" xr:uid="{5B193E7F-92B9-4D84-AD9A-1FB81E872C30}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08PQPJYHX?ref_=pd_sn_dp_a2a_ns_d_rs_dp_0&amp;pd_rd_w=nbYXm&amp;pf_rd_p=d8a29d2d-375f-411b-8255-464686dcb4e9&amp;pf_rd_r=YJW23TS1HJTQC1E3EEB9&amp;pd_rd_r=5578f30c-5b46-4b54-96d0-cd6367a1aa2d&amp;pd_rd_wg=qOQbg&amp;th=1" xr:uid="{BD57B437-4133-473D-B992-9A72BDEEDDE1}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{8D45057B-6E1C-4A62-9129-BEF55C8C65F1}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{F6B5D18B-8E9B-471B-B995-D2F13FA1395A}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{FD02188C-3DE6-4DAA-AB6D-D3F2026F749C}"/>
+    <hyperlink ref="F3" r:id="rId5" display="https://www.amazon.com/Iverntech-European-Standard-Extrusion-Engraving/dp/B07PMZ6V2W/ref=sr_1_5?crid=3P5Y4L0RFGPX8&amp;keywords=aluminum%2Bextrusion%2B20mm%2Bx%2B40mm&amp;qid=1644855216&amp;s=industrial&amp;sprefix=alumnium%2Bextrusion%2B20mm%2Bx%2B40mm%2Cindustrial%2C49&amp;sr=1-5&amp;th=1" xr:uid="{F8179D22-8816-46F4-9EB4-CF0E50ABCD7B}"/>
+    <hyperlink ref="F4" r:id="rId6" display="https://www.amazon.com/Iverntech-European-Standard-Extrusion-Engraving/dp/B07PNXNF5V/ref=sr_1_5?crid=3P5Y4L0RFGPX8&amp;keywords=aluminum%2Bextrusion%2B20mm%2Bx%2B40mm&amp;qid=1644855216&amp;s=industrial&amp;sprefix=alumnium%2Bextrusion%2B20mm%2Bx%2B40mm%2Cindustrial%2C49&amp;sr=1-5&amp;th=1" xr:uid="{75FAF0ED-A514-4D6D-A420-C8E8EACC3AE6}"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.amazon.com/Befenybay-Extruded-Aluminum-Extrusion-2028-Black-10/dp/B086CYCGCX/ref=sr_1_6?crid=316U4YR9WT108&amp;keywords=aluminum%2Bextrusion%2Bgusset%2B20mm&amp;qid=1644855780&amp;s=industrial&amp;sprefix=aluminum%2Bextrusion%2Bgusset%2B20mm%2Cindustrial%2C32&amp;sr=1-6&amp;th=1" xr:uid="{8C13152F-D896-484E-8543-935401E67456}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{960417E1-1A56-4501-8CD8-97E4D5DE9E2F}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{2B2C1F59-4156-4D04-BB3B-E52073702420}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{A53C816A-1264-496A-832A-444C2F5825F2}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{CF570558-0E3A-4CEB-A07D-2DF01695DA83}"/>
+    <hyperlink ref="F15" r:id="rId12" display="https://www.amazon.com/Befenybay-Extruded-Aluminum-Extrusion-2028-Black-10/dp/B086CYCGCX/ref=sr_1_6?crid=316U4YR9WT108&amp;keywords=aluminum%2Bextrusion%2Bgusset%2B20mm&amp;qid=1644855780&amp;s=industrial&amp;sprefix=aluminum%2Bextrusion%2Bgusset%2B20mm%2Cindustrial%2C32&amp;sr=1-6&amp;th=1" xr:uid="{E2F29E0B-DB6F-497D-8D60-7C0F1184E38E}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{C8E79EBC-C908-4E65-852F-8E0D483D6FF6}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{5B193E7F-92B9-4D84-AD9A-1FB81E872C30}"/>
+    <hyperlink ref="F14" r:id="rId15" display="https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08PQPJYHX?ref_=pd_sn_dp_a2a_ns_d_rs_dp_0&amp;pd_rd_w=nbYXm&amp;pf_rd_p=d8a29d2d-375f-411b-8255-464686dcb4e9&amp;pf_rd_r=YJW23TS1HJTQC1E3EEB9&amp;pd_rd_r=5578f30c-5b46-4b54-96d0-cd6367a1aa2d&amp;pd_rd_wg=qOQbg&amp;th=1" xr:uid="{D7F8E6C4-8287-45FF-ADEE-720EF6451D1F}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{892DA1BC-078D-4BDC-A2A4-C255F8478F2B}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{86330535-D61E-4438-AECD-A59C9688E08D}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{35E11504-4B27-4DAF-B239-45CBC0EDFCF8}"/>
+    <hyperlink ref="F24" r:id="rId19" xr:uid="{5AFB8E61-0ED0-4EF0-A92F-125B5819B55A}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{D5326519-7E23-4F53-87A6-8D55A3DC5849}"/>
+    <hyperlink ref="F27" r:id="rId21" xr:uid="{59D48A63-7DBA-4F6E-9E25-4AF96A92022E}"/>
+    <hyperlink ref="F29" r:id="rId22" display="https://www.amazon.com/weideer-Position-Aircraft-Terminals-KL-C101-RMZ-DZ/dp/B09XKBRL3V/ref=sr_1_7_sspa?keywords=toggle+switch+red&amp;qid=1659271405&amp;sr=8-7-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExVllRUUk5TkUwTUwwJmVuY3J5cHRlZElkPUEwMzcxNzAzMzFFUFdIRTdDNjdRWSZlbmNyeXB0ZWRBZElkPUEwMjkzNzE0M1BRWUQ0VTNHSDFTMiZ3aWRnZXROYW1lPXNwX210ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{EDEF958B-4BF8-4AD6-A9AE-5E36BF67526D}"/>
+    <hyperlink ref="F30" r:id="rId23" display="https://www.amazon.com/Wirefy-180-Heat-Shrink-Tubing/dp/B084GDLSCK/ref=sr_1_1_sspa?keywords=heat+shrink+tubing&amp;qid=1659285461&amp;s=industrial&amp;sprefix=heat+shrink%2Cindustrial%2C438&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExR1NQUVhCV1NIMVVWJmVuY3J5cHRlZElkPUEwMDkxOTg4MUQ4S1hNQ1NVQzFMWCZlbmNyeXB0ZWRBZElkPUEwODM0NDAxRTE0UVYyNjIyU1kzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{64989EB7-874E-4C78-A2E4-8D93FFC24652}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{2A4CAA85-1442-45A3-9FA1-C3945DF17D27}"/>
+    <hyperlink ref="F32" r:id="rId25" xr:uid="{074413CC-7AD0-4118-A0FA-58B3B4B6427A}"/>
+    <hyperlink ref="F33" r:id="rId26" xr:uid="{8102BAE8-B533-4E5C-A00B-23B7D6287154}"/>
+    <hyperlink ref="F34" r:id="rId27" xr:uid="{400A0973-715B-40E4-A69E-F3671B2C8BCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>